--- a/用例数据/沪A/各种证券变动/00C/测试结果.xlsx
+++ b/用例数据/沪A/各种证券变动/00C/测试结果.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25860" windowHeight="9420" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25860" windowHeight="9420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="stklist" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1930" uniqueCount="365">
   <si>
     <t xml:space="preserve">   </t>
   </si>
@@ -1019,18 +1019,6 @@
     <t>CCB1</t>
   </si>
   <si>
-    <t>20221216000000</t>
-  </si>
-  <si>
-    <t>20221216235959</t>
-  </si>
-  <si>
-    <t>20221217162414</t>
-  </si>
-  <si>
-    <t>906843048.790</t>
-  </si>
-  <si>
     <t>100.120</t>
   </si>
   <si>
@@ -1052,9 +1040,6 @@
     <t>润达医疗</t>
   </si>
   <si>
-    <t>49700.0000</t>
-  </si>
-  <si>
     <t>9.9400</t>
   </si>
   <si>
@@ -1079,64 +1064,61 @@
     <t>603106</t>
   </si>
   <si>
-    <t>70000.0000</t>
-  </si>
-  <si>
     <t>10.0000</t>
   </si>
   <si>
     <t>143000.000</t>
   </si>
   <si>
-    <t>70000.000</t>
-  </si>
-  <si>
     <t>171600.000</t>
   </si>
   <si>
-    <t>49700.000</t>
-  </si>
-  <si>
-    <t>INTERIORDESC</t>
-  </si>
-  <si>
-    <t>股份冻结</t>
-  </si>
-  <si>
-    <t>30051764</t>
-  </si>
-  <si>
     <t>005_004_015</t>
   </si>
   <si>
     <t>00C</t>
   </si>
   <si>
-    <t>000007100240</t>
-  </si>
-  <si>
-    <t>股份转让等非交易过户转出</t>
-  </si>
-  <si>
-    <t>30051765</t>
-  </si>
-  <si>
-    <t>005_004_025</t>
-  </si>
-  <si>
-    <t>10.00000000</t>
-  </si>
-  <si>
-    <t>000007100241</t>
-  </si>
-  <si>
-    <t>30051766</t>
-  </si>
-  <si>
-    <t>9.94000000</t>
-  </si>
-  <si>
-    <t>000007100242</t>
+    <t>20230209000000</t>
+  </si>
+  <si>
+    <t>100000.0000</t>
+  </si>
+  <si>
+    <t>99400.0000</t>
+  </si>
+  <si>
+    <t>100000.000</t>
+  </si>
+  <si>
+    <t>99400.000</t>
+  </si>
+  <si>
+    <t>30002081</t>
+  </si>
+  <si>
+    <t>20230209235959</t>
+  </si>
+  <si>
+    <t>20230210084837</t>
+  </si>
+  <si>
+    <t>651651198.070</t>
+  </si>
+  <si>
+    <t>000007125204</t>
+  </si>
+  <si>
+    <t>30002082</t>
+  </si>
+  <si>
+    <t>000007125205</t>
+  </si>
+  <si>
+    <t>30002083</t>
+  </si>
+  <si>
+    <t>000007125206</t>
   </si>
 </sst>
 </file>
@@ -1488,75 +1470,74 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.88671875" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" customWidth="1"/>
-    <col min="8" max="9" width="15.21875" customWidth="1"/>
-    <col min="10" max="10" width="14.109375" customWidth="1"/>
-    <col min="11" max="11" width="17.5546875" customWidth="1"/>
-    <col min="12" max="12" width="14.109375" customWidth="1"/>
-    <col min="13" max="13" width="16.44140625" customWidth="1"/>
-    <col min="14" max="14" width="11.88671875" customWidth="1"/>
-    <col min="15" max="15" width="8.6640625" customWidth="1"/>
-    <col min="16" max="16" width="10.77734375" customWidth="1"/>
-    <col min="17" max="17" width="7.6640625" customWidth="1"/>
-    <col min="18" max="18" width="17.5546875" customWidth="1"/>
-    <col min="19" max="19" width="9.6640625" customWidth="1"/>
-    <col min="20" max="21" width="13" customWidth="1"/>
-    <col min="22" max="22" width="11.88671875" customWidth="1"/>
-    <col min="23" max="23" width="15.21875" customWidth="1"/>
-    <col min="24" max="24" width="10.77734375" customWidth="1"/>
-    <col min="25" max="25" width="16.44140625" customWidth="1"/>
-    <col min="26" max="26" width="15.21875" customWidth="1"/>
-    <col min="27" max="27" width="22" customWidth="1"/>
-    <col min="28" max="28" width="11.88671875" customWidth="1"/>
-    <col min="29" max="29" width="20.88671875" customWidth="1"/>
-    <col min="30" max="30" width="24.21875" customWidth="1"/>
-    <col min="31" max="31" width="23.109375" customWidth="1"/>
-    <col min="32" max="33" width="13" customWidth="1"/>
-    <col min="34" max="34" width="14.109375" customWidth="1"/>
-    <col min="35" max="35" width="13" customWidth="1"/>
-    <col min="36" max="37" width="14.109375" customWidth="1"/>
-    <col min="38" max="39" width="15.21875" customWidth="1"/>
-    <col min="40" max="41" width="13" customWidth="1"/>
-    <col min="42" max="42" width="14.109375" customWidth="1"/>
-    <col min="43" max="43" width="16.44140625" customWidth="1"/>
-    <col min="44" max="44" width="23.109375" customWidth="1"/>
-    <col min="45" max="45" width="19.77734375" customWidth="1"/>
-    <col min="46" max="46" width="23.109375" customWidth="1"/>
-    <col min="47" max="47" width="15.21875" customWidth="1"/>
-    <col min="48" max="48" width="18.6640625" customWidth="1"/>
-    <col min="49" max="49" width="17.5546875" customWidth="1"/>
-    <col min="50" max="51" width="16.44140625" customWidth="1"/>
-    <col min="52" max="53" width="17.5546875" customWidth="1"/>
-    <col min="54" max="54" width="16.44140625" customWidth="1"/>
-    <col min="55" max="55" width="17.5546875" customWidth="1"/>
-    <col min="56" max="56" width="18.6640625" customWidth="1"/>
-    <col min="57" max="57" width="25.44140625" customWidth="1"/>
-    <col min="58" max="58" width="27.6640625" customWidth="1"/>
-    <col min="59" max="59" width="20.88671875" customWidth="1"/>
-    <col min="60" max="60" width="16.44140625" customWidth="1"/>
-    <col min="61" max="61" width="23.109375" customWidth="1"/>
-    <col min="62" max="62" width="9.6640625" customWidth="1"/>
-    <col min="63" max="63" width="23.109375" customWidth="1"/>
-    <col min="64" max="64" width="18.6640625" customWidth="1"/>
-    <col min="65" max="65" width="24.21875" customWidth="1"/>
-    <col min="66" max="66" width="19.77734375" customWidth="1"/>
-    <col min="67" max="67" width="14.109375" customWidth="1"/>
-    <col min="68" max="68" width="17.5546875" customWidth="1"/>
-    <col min="69" max="69" width="15.21875" customWidth="1"/>
-    <col min="70" max="70" width="16.44140625" customWidth="1"/>
-    <col min="71" max="71" width="18.6640625" customWidth="1"/>
-    <col min="72" max="72" width="19.77734375" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="10.75" customWidth="1"/>
+    <col min="6" max="6" width="11.875" customWidth="1"/>
+    <col min="7" max="8" width="15.25" customWidth="1"/>
+    <col min="9" max="9" width="14.125" customWidth="1"/>
+    <col min="10" max="10" width="17.5" customWidth="1"/>
+    <col min="11" max="11" width="14.125" customWidth="1"/>
+    <col min="12" max="12" width="16.5" customWidth="1"/>
+    <col min="13" max="13" width="11.875" customWidth="1"/>
+    <col min="14" max="14" width="8.625" customWidth="1"/>
+    <col min="15" max="15" width="10.75" customWidth="1"/>
+    <col min="16" max="16" width="7.625" customWidth="1"/>
+    <col min="17" max="17" width="17.5" customWidth="1"/>
+    <col min="18" max="18" width="9.625" customWidth="1"/>
+    <col min="19" max="20" width="13" customWidth="1"/>
+    <col min="21" max="21" width="11.875" customWidth="1"/>
+    <col min="22" max="22" width="15.25" customWidth="1"/>
+    <col min="23" max="23" width="10.75" customWidth="1"/>
+    <col min="24" max="24" width="16.5" customWidth="1"/>
+    <col min="25" max="25" width="15.25" customWidth="1"/>
+    <col min="26" max="26" width="22" customWidth="1"/>
+    <col min="27" max="27" width="11.875" customWidth="1"/>
+    <col min="28" max="28" width="20.875" customWidth="1"/>
+    <col min="29" max="29" width="24.25" customWidth="1"/>
+    <col min="30" max="30" width="23.125" customWidth="1"/>
+    <col min="31" max="32" width="13" customWidth="1"/>
+    <col min="33" max="33" width="14.125" customWidth="1"/>
+    <col min="34" max="34" width="13" customWidth="1"/>
+    <col min="35" max="36" width="14.125" customWidth="1"/>
+    <col min="37" max="38" width="15.25" customWidth="1"/>
+    <col min="39" max="40" width="13" customWidth="1"/>
+    <col min="41" max="41" width="14.125" customWidth="1"/>
+    <col min="42" max="42" width="16.5" customWidth="1"/>
+    <col min="43" max="43" width="23.125" customWidth="1"/>
+    <col min="44" max="44" width="19.75" customWidth="1"/>
+    <col min="45" max="45" width="23.125" customWidth="1"/>
+    <col min="46" max="46" width="15.25" customWidth="1"/>
+    <col min="47" max="47" width="18.625" customWidth="1"/>
+    <col min="48" max="48" width="17.5" customWidth="1"/>
+    <col min="49" max="50" width="16.5" customWidth="1"/>
+    <col min="51" max="52" width="17.5" customWidth="1"/>
+    <col min="53" max="53" width="16.5" customWidth="1"/>
+    <col min="54" max="54" width="17.5" customWidth="1"/>
+    <col min="55" max="55" width="18.625" customWidth="1"/>
+    <col min="56" max="56" width="25.5" customWidth="1"/>
+    <col min="57" max="57" width="27.625" customWidth="1"/>
+    <col min="58" max="58" width="20.875" customWidth="1"/>
+    <col min="59" max="59" width="16.5" customWidth="1"/>
+    <col min="60" max="60" width="23.125" customWidth="1"/>
+    <col min="61" max="61" width="9.625" customWidth="1"/>
+    <col min="62" max="62" width="23.125" customWidth="1"/>
+    <col min="63" max="63" width="18.625" customWidth="1"/>
+    <col min="64" max="64" width="24.25" customWidth="1"/>
+    <col min="65" max="65" width="19.75" customWidth="1"/>
+    <col min="66" max="66" width="14.125" customWidth="1"/>
+    <col min="67" max="67" width="17.5" customWidth="1"/>
+    <col min="68" max="68" width="15.25" customWidth="1"/>
+    <col min="69" max="69" width="16.5" customWidth="1"/>
+    <col min="70" max="70" width="18.625" customWidth="1"/>
+    <col min="71" max="71" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:86" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1812,11 +1793,11 @@
       <c r="CG1" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="CH1" s="3" t="s">
+      <c r="CH1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="2" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:86" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>81</v>
       </c>
@@ -1836,31 +1817,31 @@
         <v>92</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>81</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>282</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>81</v>
+        <v>342</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>82</v>
@@ -1872,7 +1853,7 @@
         <v>81</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>81</v>
+        <v>298</v>
       </c>
       <c r="T2" s="3" t="s">
         <v>83</v>
@@ -1896,7 +1877,7 @@
         <v>87</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>81</v>
@@ -2019,7 +2000,7 @@
         <v>94</v>
       </c>
       <c r="BP2" s="3" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="BQ2" s="3" t="s">
         <v>83</v>
@@ -2070,11 +2051,11 @@
       <c r="CG2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="CH2" s="3" t="s">
-        <v>81</v>
+      <c r="CH2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:86" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>81</v>
       </c>
@@ -2094,10 +2075,10 @@
         <v>92</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>81</v>
@@ -2109,19 +2090,19 @@
         <v>282</v>
       </c>
       <c r="L3" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>342</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>82</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>283</v>
+        <v>81</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>81</v>
@@ -2130,7 +2111,7 @@
         <v>81</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>81</v>
+        <v>298</v>
       </c>
       <c r="T3" s="3" t="s">
         <v>83</v>
@@ -2154,7 +2135,7 @@
         <v>87</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="AB3" s="3" t="s">
         <v>81</v>
@@ -2208,7 +2189,7 @@
         <v>81</v>
       </c>
       <c r="AS3" s="3" t="s">
-        <v>284</v>
+        <v>81</v>
       </c>
       <c r="AT3" s="3" t="s">
         <v>81</v>
@@ -2277,7 +2258,7 @@
         <v>94</v>
       </c>
       <c r="BP3" s="3" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="BQ3" s="3" t="s">
         <v>83</v>
@@ -2328,11 +2309,11 @@
       <c r="CG3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="CH3" s="3" t="s">
-        <v>81</v>
+      <c r="CH3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:86" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>81</v>
       </c>
@@ -2352,31 +2333,31 @@
         <v>92</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>81</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>282</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>347</v>
+        <v>81</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>82</v>
@@ -2388,7 +2369,7 @@
         <v>81</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>298</v>
+        <v>81</v>
       </c>
       <c r="T4" s="3" t="s">
         <v>83</v>
@@ -2412,7 +2393,7 @@
         <v>87</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="AB4" s="3" t="s">
         <v>81</v>
@@ -2535,7 +2516,7 @@
         <v>94</v>
       </c>
       <c r="BP4" s="3" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="BQ4" s="3" t="s">
         <v>83</v>
@@ -2586,11 +2567,11 @@
       <c r="CG4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="CH4" s="3" t="s">
-        <v>81</v>
+      <c r="CH4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:86" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>81</v>
       </c>
@@ -2610,31 +2591,31 @@
         <v>92</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>81</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>347</v>
+        <v>82</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>282</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>347</v>
+        <v>82</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>347</v>
+        <v>82</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>81</v>
@@ -2670,7 +2651,7 @@
         <v>87</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="AB5" s="3" t="s">
         <v>81</v>
@@ -2724,7 +2705,7 @@
         <v>81</v>
       </c>
       <c r="AS5" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AT5" s="3" t="s">
         <v>81</v>
@@ -2793,7 +2774,7 @@
         <v>94</v>
       </c>
       <c r="BP5" s="3" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="BQ5" s="3" t="s">
         <v>83</v>
@@ -2844,8 +2825,8 @@
       <c r="CG5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="CH5" s="3" t="s">
-        <v>81</v>
+      <c r="CH5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2860,12 +2841,12 @@
   <dimension ref="A1:CA26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>168</v>
       </c>
@@ -3104,9 +3085,9 @@
         <v>279</v>
       </c>
     </row>
-    <row r="2" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>331</v>
+        <v>351</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>81</v>
@@ -3127,10 +3108,10 @@
         <v>92</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>81</v>
@@ -3142,13 +3123,13 @@
         <v>282</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>82</v>
@@ -3187,7 +3168,7 @@
         <v>83</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="AC2" s="3" t="s">
         <v>81</v>
@@ -3292,7 +3273,7 @@
         <v>94</v>
       </c>
       <c r="BK2" s="3" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="BL2" s="3" t="s">
         <v>83</v>
@@ -3340,9 +3321,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>331</v>
+        <v>351</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>81</v>
@@ -3363,10 +3344,10 @@
         <v>92</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>81</v>
@@ -3381,13 +3362,13 @@
         <v>354</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>347</v>
+        <v>82</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>81</v>
@@ -3399,7 +3380,7 @@
         <v>81</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>81</v>
+        <v>298</v>
       </c>
       <c r="U3" s="3" t="s">
         <v>83</v>
@@ -3423,7 +3404,7 @@
         <v>83</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="AC3" s="3" t="s">
         <v>81</v>
@@ -3576,9 +3557,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>331</v>
+        <v>351</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>81</v>
@@ -3599,10 +3580,10 @@
         <v>92</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>81</v>
@@ -3614,10 +3595,10 @@
         <v>282</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>81</v>
@@ -3659,7 +3640,7 @@
         <v>83</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="AC4" s="3" t="s">
         <v>81</v>
@@ -3764,7 +3745,7 @@
         <v>94</v>
       </c>
       <c r="BK4" s="3" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="BL4" s="3" t="s">
         <v>83</v>
@@ -3812,9 +3793,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>331</v>
+        <v>351</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>81</v>
@@ -3835,10 +3816,10 @@
         <v>92</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>81</v>
@@ -3850,10 +3831,10 @@
         <v>282</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="O5" s="3" t="s">
         <v>82</v>
@@ -3862,7 +3843,7 @@
         <v>82</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>283</v>
+        <v>81</v>
       </c>
       <c r="R5" s="3" t="s">
         <v>81</v>
@@ -3895,7 +3876,7 @@
         <v>83</v>
       </c>
       <c r="AB5" s="3" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="AC5" s="3" t="s">
         <v>81</v>
@@ -3931,7 +3912,7 @@
         <v>89</v>
       </c>
       <c r="AN5" s="3" t="s">
-        <v>284</v>
+        <v>82</v>
       </c>
       <c r="AO5" s="3" t="s">
         <v>81</v>
@@ -4000,7 +3981,7 @@
         <v>94</v>
       </c>
       <c r="BK5" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="BL5" s="3" t="s">
         <v>83</v>
@@ -4048,27 +4029,27 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="17" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="18" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="19" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="20" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="21" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="22" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="23" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="24" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="25" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="26" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4077,1567 +4058,1554 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EK26"/>
+  <dimension ref="A1:EJ26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" customWidth="1"/>
-    <col min="5" max="5" width="6.6640625" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" customWidth="1"/>
-    <col min="7" max="7" width="10.77734375" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" customWidth="1"/>
-    <col min="11" max="11" width="14.109375" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" customWidth="1"/>
-    <col min="14" max="14" width="8.6640625" customWidth="1"/>
-    <col min="15" max="15" width="9.6640625" customWidth="1"/>
-    <col min="16" max="16" width="23.109375" customWidth="1"/>
-    <col min="17" max="17" width="10.77734375" customWidth="1"/>
-    <col min="18" max="18" width="15.21875" customWidth="1"/>
-    <col min="19" max="20" width="14.109375" customWidth="1"/>
-    <col min="21" max="22" width="13" customWidth="1"/>
-    <col min="23" max="23" width="9.6640625" customWidth="1"/>
-    <col min="24" max="24" width="13" customWidth="1"/>
-    <col min="25" max="25" width="10.77734375" customWidth="1"/>
-    <col min="26" max="26" width="14.109375" customWidth="1"/>
-    <col min="27" max="27" width="11.88671875" customWidth="1"/>
-    <col min="28" max="29" width="9.6640625" customWidth="1"/>
-    <col min="30" max="31" width="14.109375" customWidth="1"/>
-    <col min="32" max="32" width="9.6640625" customWidth="1"/>
-    <col min="33" max="33" width="13" customWidth="1"/>
-    <col min="34" max="34" width="14.109375" customWidth="1"/>
-    <col min="35" max="35" width="8.6640625" customWidth="1"/>
-    <col min="36" max="36" width="17.5546875" customWidth="1"/>
-    <col min="37" max="37" width="11.88671875" customWidth="1"/>
-    <col min="38" max="38" width="8.6640625" customWidth="1"/>
-    <col min="39" max="39" width="9.6640625" customWidth="1"/>
-    <col min="40" max="40" width="13" customWidth="1"/>
-    <col min="41" max="41" width="16.44140625" customWidth="1"/>
-    <col min="42" max="43" width="13" customWidth="1"/>
-    <col min="44" max="44" width="16.44140625" customWidth="1"/>
-    <col min="45" max="45" width="15.21875" customWidth="1"/>
-    <col min="46" max="46" width="9.6640625" customWidth="1"/>
-    <col min="47" max="47" width="17.5546875" customWidth="1"/>
-    <col min="48" max="48" width="14.109375" customWidth="1"/>
-    <col min="49" max="49" width="11.88671875" customWidth="1"/>
-    <col min="50" max="50" width="8.6640625" customWidth="1"/>
-    <col min="51" max="51" width="14.109375" customWidth="1"/>
-    <col min="52" max="52" width="9.6640625" customWidth="1"/>
-    <col min="53" max="53" width="17.5546875" customWidth="1"/>
-    <col min="54" max="54" width="10.77734375" customWidth="1"/>
-    <col min="55" max="55" width="11.88671875" customWidth="1"/>
-    <col min="56" max="56" width="13" customWidth="1"/>
-    <col min="57" max="57" width="11.88671875" customWidth="1"/>
-    <col min="58" max="58" width="15.21875" customWidth="1"/>
-    <col min="59" max="59" width="11.88671875" customWidth="1"/>
-    <col min="60" max="60" width="13" customWidth="1"/>
-    <col min="61" max="61" width="17.5546875" customWidth="1"/>
-    <col min="62" max="62" width="20.88671875" customWidth="1"/>
-    <col min="63" max="63" width="16.44140625" customWidth="1"/>
-    <col min="64" max="64" width="13" customWidth="1"/>
-    <col min="65" max="65" width="11.88671875" customWidth="1"/>
-    <col min="66" max="66" width="10.77734375" customWidth="1"/>
-    <col min="67" max="67" width="11.88671875" customWidth="1"/>
-    <col min="68" max="69" width="7.6640625" customWidth="1"/>
-    <col min="70" max="71" width="17.5546875" customWidth="1"/>
-    <col min="72" max="72" width="16.44140625" customWidth="1"/>
-    <col min="73" max="73" width="11.88671875" customWidth="1"/>
-    <col min="74" max="74" width="14.109375" customWidth="1"/>
-    <col min="75" max="75" width="11.88671875" customWidth="1"/>
-    <col min="76" max="76" width="10.77734375" customWidth="1"/>
-    <col min="77" max="77" width="11.88671875" customWidth="1"/>
-    <col min="78" max="78" width="19.77734375" customWidth="1"/>
-    <col min="79" max="79" width="16.44140625" customWidth="1"/>
-    <col min="80" max="80" width="23.109375" customWidth="1"/>
-    <col min="81" max="81" width="7.6640625" customWidth="1"/>
-    <col min="82" max="82" width="18.6640625" customWidth="1"/>
-    <col min="83" max="83" width="10.77734375" customWidth="1"/>
-    <col min="84" max="84" width="14.109375" customWidth="1"/>
-    <col min="85" max="85" width="13" customWidth="1"/>
-    <col min="86" max="86" width="16.44140625" customWidth="1"/>
-    <col min="87" max="88" width="13" customWidth="1"/>
-    <col min="89" max="89" width="9.6640625" customWidth="1"/>
-    <col min="90" max="90" width="16.44140625" customWidth="1"/>
-    <col min="91" max="91" width="14.109375" customWidth="1"/>
-    <col min="92" max="92" width="11.88671875" customWidth="1"/>
-    <col min="93" max="94" width="15.21875" customWidth="1"/>
-    <col min="95" max="95" width="9.6640625" customWidth="1"/>
-    <col min="96" max="96" width="13" customWidth="1"/>
-    <col min="97" max="97" width="9.6640625" customWidth="1"/>
-    <col min="98" max="98" width="15.21875" customWidth="1"/>
-    <col min="99" max="99" width="17.5546875" customWidth="1"/>
-    <col min="100" max="100" width="9.6640625" customWidth="1"/>
-    <col min="101" max="101" width="19.77734375" customWidth="1"/>
-    <col min="102" max="102" width="16.44140625" customWidth="1"/>
-    <col min="103" max="103" width="20.88671875" customWidth="1"/>
-    <col min="104" max="104" width="24.21875" customWidth="1"/>
-    <col min="105" max="105" width="16.44140625" customWidth="1"/>
-    <col min="106" max="106" width="17.5546875" customWidth="1"/>
-    <col min="107" max="107" width="22" customWidth="1"/>
-    <col min="108" max="109" width="20.88671875" customWidth="1"/>
-    <col min="110" max="110" width="19.77734375" customWidth="1"/>
-    <col min="111" max="111" width="17.5546875" customWidth="1"/>
-    <col min="112" max="112" width="20.88671875" customWidth="1"/>
-    <col min="113" max="113" width="18.6640625" customWidth="1"/>
-    <col min="114" max="114" width="8.6640625" customWidth="1"/>
-    <col min="115" max="115" width="15.21875" customWidth="1"/>
-    <col min="116" max="116" width="13" customWidth="1"/>
-    <col min="117" max="117" width="14.109375" customWidth="1"/>
-    <col min="118" max="118" width="10.77734375" customWidth="1"/>
+    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.75" customWidth="1"/>
+    <col min="3" max="3" width="8.625" customWidth="1"/>
+    <col min="4" max="4" width="6.625" customWidth="1"/>
+    <col min="5" max="5" width="7.625" customWidth="1"/>
+    <col min="6" max="6" width="10.75" customWidth="1"/>
+    <col min="7" max="7" width="9.625" customWidth="1"/>
+    <col min="8" max="8" width="11.875" customWidth="1"/>
+    <col min="9" max="9" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="14.125" customWidth="1"/>
+    <col min="11" max="11" width="9.625" customWidth="1"/>
+    <col min="12" max="12" width="14.125" customWidth="1"/>
+    <col min="13" max="13" width="8.625" customWidth="1"/>
+    <col min="14" max="14" width="9.625" customWidth="1"/>
+    <col min="15" max="15" width="23.125" customWidth="1"/>
+    <col min="16" max="16" width="10.75" customWidth="1"/>
+    <col min="17" max="17" width="15.25" customWidth="1"/>
+    <col min="18" max="19" width="14.125" customWidth="1"/>
+    <col min="20" max="21" width="13" customWidth="1"/>
+    <col min="22" max="22" width="9.625" customWidth="1"/>
+    <col min="23" max="23" width="13" customWidth="1"/>
+    <col min="24" max="24" width="10.75" customWidth="1"/>
+    <col min="25" max="25" width="14.125" customWidth="1"/>
+    <col min="26" max="26" width="11.875" customWidth="1"/>
+    <col min="27" max="28" width="9.625" customWidth="1"/>
+    <col min="29" max="30" width="14.125" customWidth="1"/>
+    <col min="31" max="31" width="9.625" customWidth="1"/>
+    <col min="32" max="32" width="13" customWidth="1"/>
+    <col min="33" max="33" width="14.125" customWidth="1"/>
+    <col min="34" max="34" width="8.625" customWidth="1"/>
+    <col min="35" max="35" width="17.5" customWidth="1"/>
+    <col min="36" max="36" width="11.875" customWidth="1"/>
+    <col min="37" max="37" width="8.625" customWidth="1"/>
+    <col min="38" max="38" width="9.625" customWidth="1"/>
+    <col min="39" max="39" width="13" customWidth="1"/>
+    <col min="40" max="40" width="16.5" customWidth="1"/>
+    <col min="41" max="42" width="13" customWidth="1"/>
+    <col min="43" max="43" width="16.5" customWidth="1"/>
+    <col min="44" max="44" width="15.25" customWidth="1"/>
+    <col min="45" max="45" width="9.625" customWidth="1"/>
+    <col min="46" max="46" width="17.5" customWidth="1"/>
+    <col min="47" max="47" width="14.125" customWidth="1"/>
+    <col min="48" max="48" width="11.875" customWidth="1"/>
+    <col min="49" max="49" width="8.625" customWidth="1"/>
+    <col min="50" max="50" width="14.125" customWidth="1"/>
+    <col min="51" max="51" width="9.625" customWidth="1"/>
+    <col min="52" max="52" width="17.5" customWidth="1"/>
+    <col min="53" max="53" width="10.75" customWidth="1"/>
+    <col min="54" max="54" width="11.875" customWidth="1"/>
+    <col min="55" max="55" width="13" customWidth="1"/>
+    <col min="56" max="56" width="11.875" customWidth="1"/>
+    <col min="57" max="57" width="15.25" customWidth="1"/>
+    <col min="58" max="58" width="11.875" customWidth="1"/>
+    <col min="59" max="59" width="13" customWidth="1"/>
+    <col min="60" max="60" width="17.5" customWidth="1"/>
+    <col min="61" max="61" width="20.875" customWidth="1"/>
+    <col min="62" max="62" width="16.5" customWidth="1"/>
+    <col min="63" max="63" width="13" customWidth="1"/>
+    <col min="64" max="64" width="11.875" customWidth="1"/>
+    <col min="65" max="65" width="10.75" customWidth="1"/>
+    <col min="66" max="66" width="11.875" customWidth="1"/>
+    <col min="67" max="68" width="7.625" customWidth="1"/>
+    <col min="69" max="70" width="17.5" customWidth="1"/>
+    <col min="71" max="71" width="16.5" customWidth="1"/>
+    <col min="72" max="72" width="11.875" customWidth="1"/>
+    <col min="73" max="73" width="14.125" customWidth="1"/>
+    <col min="74" max="74" width="11.875" customWidth="1"/>
+    <col min="75" max="75" width="10.75" customWidth="1"/>
+    <col min="76" max="76" width="11.875" customWidth="1"/>
+    <col min="77" max="77" width="19.75" customWidth="1"/>
+    <col min="78" max="78" width="16.5" customWidth="1"/>
+    <col min="79" max="79" width="23.125" customWidth="1"/>
+    <col min="80" max="80" width="7.625" customWidth="1"/>
+    <col min="81" max="81" width="18.625" customWidth="1"/>
+    <col min="82" max="82" width="10.75" customWidth="1"/>
+    <col min="83" max="83" width="14.125" customWidth="1"/>
+    <col min="84" max="84" width="13" customWidth="1"/>
+    <col min="85" max="85" width="16.5" customWidth="1"/>
+    <col min="86" max="87" width="13" customWidth="1"/>
+    <col min="88" max="88" width="9.625" customWidth="1"/>
+    <col min="89" max="89" width="16.5" customWidth="1"/>
+    <col min="90" max="90" width="14.125" customWidth="1"/>
+    <col min="91" max="91" width="11.875" customWidth="1"/>
+    <col min="92" max="93" width="15.25" customWidth="1"/>
+    <col min="94" max="94" width="9.625" customWidth="1"/>
+    <col min="95" max="95" width="13" customWidth="1"/>
+    <col min="96" max="96" width="9.625" customWidth="1"/>
+    <col min="97" max="97" width="15.25" customWidth="1"/>
+    <col min="98" max="98" width="17.5" customWidth="1"/>
+    <col min="99" max="99" width="9.625" customWidth="1"/>
+    <col min="100" max="100" width="19.75" customWidth="1"/>
+    <col min="101" max="101" width="16.5" customWidth="1"/>
+    <col min="102" max="102" width="20.875" customWidth="1"/>
+    <col min="103" max="103" width="24.25" customWidth="1"/>
+    <col min="104" max="104" width="16.5" customWidth="1"/>
+    <col min="105" max="105" width="17.5" customWidth="1"/>
+    <col min="106" max="106" width="22" customWidth="1"/>
+    <col min="107" max="108" width="20.875" customWidth="1"/>
+    <col min="109" max="109" width="19.75" customWidth="1"/>
+    <col min="110" max="110" width="17.5" customWidth="1"/>
+    <col min="111" max="111" width="20.875" customWidth="1"/>
+    <col min="112" max="112" width="18.625" customWidth="1"/>
+    <col min="113" max="113" width="8.625" customWidth="1"/>
+    <col min="114" max="114" width="15.25" customWidth="1"/>
+    <col min="115" max="115" width="13" customWidth="1"/>
+    <col min="116" max="116" width="14.125" customWidth="1"/>
+    <col min="117" max="117" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="DS1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="DT1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="DU1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="DV1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="DW1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="DX1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="DY1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="DZ1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="EA1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="EB1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="EC1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="ED1" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="EE1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="EF1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="EG1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="EH1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="EI1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="EJ1" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="2" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="DO1" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="DP1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="DW1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="DX1" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="DY1" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="DZ1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="EA1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="EB1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="EC1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="ED1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="EE1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="EF1" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="EG1" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="EH1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="EI1" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="EJ1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="EK1" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="2" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>81</v>
+        <v>81</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>330</v>
+        <v>93</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>89</v>
+        <v>339</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>92</v>
+        <v>340</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>344</v>
+        <v>85</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>345</v>
+        <v>85</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>85</v>
       </c>
       <c r="S2" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="BI2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="Z2" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BE2" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="BH2" s="1" t="s">
+      <c r="BJ2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BL2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BM2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BN2" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="BP2" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="BI2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BJ2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="BK2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="BL2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BN2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BO2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BP2" s="1" t="s">
-        <v>268</v>
+      <c r="BQ2" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="BR2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BS2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BT2" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="BS2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BT2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BU2" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="BV2" s="1" t="s">
         <v>163</v>
       </c>
+      <c r="BW2" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="BX2" s="1" t="s">
-        <v>163</v>
+        <v>101</v>
       </c>
       <c r="BY2" s="1" t="s">
         <v>101</v>
       </c>
       <c r="BZ2" s="1" t="s">
-        <v>101</v>
+        <v>269</v>
       </c>
       <c r="CA2" s="1" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="CB2" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="CC2" s="1" t="s">
         <v>83</v>
       </c>
       <c r="CD2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="CF2" s="1" t="s">
+      <c r="CE2" s="1" t="s">
         <v>83</v>
       </c>
       <c r="CG2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CI2" s="1" t="s">
-        <v>81</v>
+        <v>81</v>
+      </c>
+      <c r="CH2" s="1" t="s">
+        <v>360</v>
       </c>
       <c r="CJ2" s="1" t="s">
-        <v>362</v>
+        <v>163</v>
+      </c>
+      <c r="CK2" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="CL2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CR2" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="CT2" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="CV2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="DA2" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="DC2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="DD2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="DE2" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="DF2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DG2" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="CM2" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="CN2" s="1" t="s">
+      <c r="DJ2" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="DK2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="DL2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="DM2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="DN2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DO2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="DP2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="DQ2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="DR2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="DS2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="DT2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="DU2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="DV2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="DW2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="DX2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="DY2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="ED2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="EE2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="EG2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="EI2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="CT2" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="CV2" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="CX2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="DC2" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="DE2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="DF2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="DG2" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="DH2" s="1" t="s">
+      <c r="EJ2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="DI2" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DL2" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="DM2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="DN2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="DO2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="DP2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="DQ2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="DR2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="DS2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="DT2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="DU2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="DV2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="DW2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="DX2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="DY2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="DZ2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="EA2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="EF2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="EG2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="EI2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="EK2" s="1" t="s">
-        <v>88</v>
-      </c>
     </row>
-    <row r="3" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>164</v>
+        <v>361</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>364</v>
+        <v>84</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>84</v>
+        <v>358</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>81</v>
+        <v>81</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>330</v>
+        <v>93</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>89</v>
+        <v>345</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>92</v>
+        <v>344</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>350</v>
+        <v>85</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>349</v>
+        <v>85</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>85</v>
       </c>
       <c r="S3" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="AR3" s="1" t="s">
-        <v>265</v>
+        <v>91</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>91</v>
+        <v>266</v>
       </c>
       <c r="AU3" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="AW3" s="1" t="s">
-        <v>89</v>
+        <v>273</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>273</v>
+        <v>87</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>87</v>
+        <v>267</v>
       </c>
       <c r="BA3" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="BB3" s="1" t="s">
-        <v>267</v>
+        <v>81</v>
       </c>
       <c r="BC3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BD3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BE3" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="BF3" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="BH3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="BI3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BL3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BM3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BN3" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="BP3" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="BI3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BJ3" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="BK3" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="BL3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BN3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BO3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BP3" s="1" t="s">
-        <v>268</v>
+      <c r="BQ3" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="BR3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BS3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BT3" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="BS3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BT3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BU3" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="BV3" s="1" t="s">
         <v>163</v>
       </c>
+      <c r="BW3" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="BX3" s="1" t="s">
-        <v>163</v>
+        <v>101</v>
       </c>
       <c r="BY3" s="1" t="s">
         <v>101</v>
       </c>
       <c r="BZ3" s="1" t="s">
-        <v>101</v>
+        <v>269</v>
       </c>
       <c r="CA3" s="1" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="CB3" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="CC3" s="1" t="s">
         <v>83</v>
       </c>
       <c r="CD3" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="CF3" s="1" t="s">
+      <c r="CE3" s="1" t="s">
         <v>83</v>
       </c>
       <c r="CG3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CI3" s="1" t="s">
-        <v>81</v>
+        <v>81</v>
+      </c>
+      <c r="CH3" s="1" t="s">
+        <v>362</v>
       </c>
       <c r="CJ3" s="1" t="s">
-        <v>367</v>
+        <v>163</v>
+      </c>
+      <c r="CK3" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="CL3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CR3" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="CT3" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="CV3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="DA3" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="DC3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="DD3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="DE3" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="DF3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DG3" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="CM3" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="CN3" s="1" t="s">
+      <c r="DJ3" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="DK3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="DL3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="DM3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="DN3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DO3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="DP3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="DQ3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="DR3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="DS3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="DT3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="DU3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="DV3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="DW3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="DX3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="DY3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="ED3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="EE3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="EG3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="EI3" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="CT3" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="CV3" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="CX3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="DC3" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="DE3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="DF3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="DG3" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="DH3" s="1" t="s">
+      <c r="EJ3" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="DI3" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DL3" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="DM3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="DN3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="DO3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="DP3" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="DQ3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="DR3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="DS3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="DT3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="DU3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="DV3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="DW3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="DX3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="DY3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="DZ3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="EA3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="EF3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="EG3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="EI3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="EK3" s="1" t="s">
-        <v>88</v>
-      </c>
     </row>
-    <row r="4" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>165</v>
+        <v>363</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>368</v>
+        <v>84</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>84</v>
+        <v>358</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>81</v>
+        <v>81</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>330</v>
+        <v>93</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>89</v>
+        <v>336</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>92</v>
+        <v>337</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>340</v>
+        <v>85</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>341</v>
+        <v>85</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>85</v>
       </c>
       <c r="S4" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="T4" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AK4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AM4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AO4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AP4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AQ4" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="AR4" s="1" t="s">
-        <v>265</v>
+        <v>91</v>
       </c>
       <c r="AS4" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>91</v>
+        <v>266</v>
       </c>
       <c r="AU4" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AV4" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="AW4" s="1" t="s">
-        <v>89</v>
+        <v>273</v>
       </c>
       <c r="AX4" s="1" t="s">
-        <v>273</v>
+        <v>87</v>
+      </c>
+      <c r="AY4" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="AZ4" s="1" t="s">
-        <v>87</v>
+        <v>267</v>
       </c>
       <c r="BA4" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="BB4" s="1" t="s">
-        <v>267</v>
+        <v>81</v>
       </c>
       <c r="BC4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BD4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BE4" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="BF4" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="BG4" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="BH4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="BI4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BJ4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BL4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BM4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BN4" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="BP4" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="BI4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BJ4" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="BK4" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="BL4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BN4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BO4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BP4" s="1" t="s">
-        <v>268</v>
+      <c r="BQ4" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="BR4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BS4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BT4" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="BS4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BT4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BU4" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="BV4" s="1" t="s">
         <v>163</v>
       </c>
+      <c r="BW4" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="BX4" s="1" t="s">
-        <v>163</v>
+        <v>101</v>
       </c>
       <c r="BY4" s="1" t="s">
         <v>101</v>
       </c>
       <c r="BZ4" s="1" t="s">
-        <v>101</v>
+        <v>269</v>
       </c>
       <c r="CA4" s="1" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="CB4" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="CC4" s="1" t="s">
         <v>83</v>
       </c>
       <c r="CD4" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="CF4" s="1" t="s">
+      <c r="CE4" s="1" t="s">
         <v>83</v>
       </c>
       <c r="CG4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CI4" s="1" t="s">
-        <v>81</v>
+        <v>81</v>
+      </c>
+      <c r="CH4" s="1" t="s">
+        <v>364</v>
       </c>
       <c r="CJ4" s="1" t="s">
-        <v>370</v>
+        <v>163</v>
+      </c>
+      <c r="CK4" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="CL4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CR4" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="CT4" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="CV4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="DA4" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="DC4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="DD4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="DE4" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="DF4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DG4" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="CM4" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="CN4" s="1" t="s">
+      <c r="DJ4" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="DK4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="DL4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="DM4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="DN4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DO4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="DP4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="DQ4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="DR4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="DS4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="DT4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="DU4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="DV4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="DW4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="DX4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="DY4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="ED4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="EE4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="EG4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="EI4" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="CT4" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="CV4" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="CX4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="DC4" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="DE4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="DF4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="DG4" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="DH4" s="1" t="s">
+      <c r="EJ4" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="DI4" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DL4" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="DM4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="DN4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="DO4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="DP4" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="DQ4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="DR4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="DS4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="DT4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="DU4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="DV4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="DW4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="DX4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="DY4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="DZ4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="EA4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="EF4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="EG4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="EI4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="EK4" s="1" t="s">
-        <v>88</v>
-      </c>
     </row>
-    <row r="5" spans="1:141" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:141" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:141" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:141" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:141" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:141" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:141" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:141" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:141" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:141" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:141" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:141" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:140" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:140" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:140" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:140" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:140" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:140" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:140" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:140" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:140" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:140" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:140" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:140" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="17" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="18" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="19" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="20" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="21" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="22" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="23" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="24" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="25" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="26" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5649,19 +5617,19 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="11.875" customWidth="1"/>
+    <col min="2" max="2" width="10.75" customWidth="1"/>
+    <col min="3" max="3" width="15.25" customWidth="1"/>
+    <col min="4" max="4" width="10.75" customWidth="1"/>
+    <col min="5" max="5" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -5717,101 +5685,101 @@
         <v>290</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="K2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="3" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="F3" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M3" s="1" t="s">
+      <c r="K3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3" s="3" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>81</v>
       </c>
@@ -5828,7 +5796,7 @@
         <v>92</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>86</v>
@@ -5840,10 +5808,10 @@
         <v>81</v>
       </c>
       <c r="J4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>284</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>81</v>
@@ -5854,16 +5822,14 @@
       <c r="N4" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
       <c r="Q4" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="R4" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5871,13 +5837,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>168</v>
       </c>
@@ -5936,9 +5902,9 @@
         <v>290</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>331</v>
+        <v>351</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>81</v>
@@ -5956,7 +5922,7 @@
         <v>92</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>86</v>
@@ -5986,9 +5952,9 @@
         <v>291</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>331</v>
+        <v>351</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>81</v>
@@ -6006,7 +5972,7 @@
         <v>92</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>86</v>
@@ -6036,9 +6002,9 @@
         <v>291</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>331</v>
+        <v>351</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>81</v>
@@ -6056,7 +6022,7 @@
         <v>92</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>86</v>
@@ -6068,10 +6034,10 @@
         <v>81</v>
       </c>
       <c r="K4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>284</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>81</v>
@@ -6086,35 +6052,35 @@
         <v>291</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="17" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="18" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="19" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="20" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="21" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="22" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="23" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="24" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="25" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="26" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="27" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="28" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="29" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="30" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="31" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="32" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="33" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6129,69 +6095,69 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="1" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="7.625" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="8.625" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" customWidth="1"/>
-    <col min="8" max="8" width="10.77734375" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" customWidth="1"/>
+    <col min="7" max="7" width="7.625" customWidth="1"/>
+    <col min="8" max="8" width="10.75" customWidth="1"/>
+    <col min="9" max="9" width="9.625" customWidth="1"/>
+    <col min="10" max="10" width="7.625" customWidth="1"/>
+    <col min="11" max="11" width="9.625" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" customWidth="1"/>
-    <col min="14" max="14" width="10.77734375" customWidth="1"/>
-    <col min="15" max="15" width="9.6640625" customWidth="1"/>
+    <col min="13" max="13" width="11.875" customWidth="1"/>
+    <col min="14" max="14" width="10.75" customWidth="1"/>
+    <col min="15" max="15" width="9.625" customWidth="1"/>
     <col min="16" max="16" width="13" customWidth="1"/>
-    <col min="17" max="17" width="5.6640625" customWidth="1"/>
+    <col min="17" max="17" width="5.625" customWidth="1"/>
     <col min="18" max="18" width="13" customWidth="1"/>
-    <col min="19" max="19" width="10.77734375" customWidth="1"/>
-    <col min="20" max="20" width="14.109375" customWidth="1"/>
-    <col min="21" max="21" width="7.6640625" customWidth="1"/>
-    <col min="22" max="23" width="11.88671875" customWidth="1"/>
-    <col min="24" max="24" width="10.77734375" customWidth="1"/>
-    <col min="25" max="25" width="11.88671875" customWidth="1"/>
-    <col min="26" max="27" width="9.6640625" customWidth="1"/>
+    <col min="19" max="19" width="10.75" customWidth="1"/>
+    <col min="20" max="20" width="14.125" customWidth="1"/>
+    <col min="21" max="21" width="7.625" customWidth="1"/>
+    <col min="22" max="23" width="11.875" customWidth="1"/>
+    <col min="24" max="24" width="10.75" customWidth="1"/>
+    <col min="25" max="25" width="11.875" customWidth="1"/>
+    <col min="26" max="27" width="9.625" customWidth="1"/>
     <col min="28" max="28" width="13" customWidth="1"/>
-    <col min="29" max="29" width="8.6640625" customWidth="1"/>
-    <col min="30" max="30" width="11.88671875" customWidth="1"/>
-    <col min="31" max="31" width="14.109375" customWidth="1"/>
-    <col min="32" max="32" width="7.6640625" customWidth="1"/>
-    <col min="33" max="33" width="9.6640625" customWidth="1"/>
+    <col min="29" max="29" width="8.625" customWidth="1"/>
+    <col min="30" max="30" width="11.875" customWidth="1"/>
+    <col min="31" max="31" width="14.125" customWidth="1"/>
+    <col min="32" max="32" width="7.625" customWidth="1"/>
+    <col min="33" max="33" width="9.625" customWidth="1"/>
     <col min="34" max="34" width="13" customWidth="1"/>
-    <col min="35" max="35" width="14.109375" customWidth="1"/>
-    <col min="36" max="39" width="10.77734375" customWidth="1"/>
-    <col min="40" max="40" width="11.88671875" customWidth="1"/>
-    <col min="41" max="41" width="16.44140625" customWidth="1"/>
-    <col min="42" max="43" width="11.88671875" customWidth="1"/>
-    <col min="44" max="44" width="14.109375" customWidth="1"/>
-    <col min="45" max="45" width="11.88671875" customWidth="1"/>
-    <col min="46" max="46" width="14.109375" customWidth="1"/>
-    <col min="47" max="47" width="8.6640625" customWidth="1"/>
-    <col min="48" max="48" width="11.88671875" customWidth="1"/>
-    <col min="49" max="49" width="5.6640625" customWidth="1"/>
-    <col min="50" max="50" width="6.6640625" customWidth="1"/>
-    <col min="51" max="51" width="14.109375" customWidth="1"/>
-    <col min="52" max="52" width="9.6640625" customWidth="1"/>
-    <col min="53" max="53" width="8.6640625" customWidth="1"/>
-    <col min="54" max="54" width="15.21875" customWidth="1"/>
-    <col min="55" max="55" width="14.109375" customWidth="1"/>
-    <col min="56" max="56" width="20.88671875" customWidth="1"/>
+    <col min="35" max="35" width="14.125" customWidth="1"/>
+    <col min="36" max="39" width="10.75" customWidth="1"/>
+    <col min="40" max="40" width="11.875" customWidth="1"/>
+    <col min="41" max="41" width="16.5" customWidth="1"/>
+    <col min="42" max="43" width="11.875" customWidth="1"/>
+    <col min="44" max="44" width="14.125" customWidth="1"/>
+    <col min="45" max="45" width="11.875" customWidth="1"/>
+    <col min="46" max="46" width="14.125" customWidth="1"/>
+    <col min="47" max="47" width="8.625" customWidth="1"/>
+    <col min="48" max="48" width="11.875" customWidth="1"/>
+    <col min="49" max="49" width="5.625" customWidth="1"/>
+    <col min="50" max="50" width="6.625" customWidth="1"/>
+    <col min="51" max="51" width="14.125" customWidth="1"/>
+    <col min="52" max="52" width="9.625" customWidth="1"/>
+    <col min="53" max="53" width="8.625" customWidth="1"/>
+    <col min="54" max="54" width="15.25" customWidth="1"/>
+    <col min="55" max="55" width="14.125" customWidth="1"/>
+    <col min="56" max="56" width="20.875" customWidth="1"/>
     <col min="57" max="57" width="13" customWidth="1"/>
-    <col min="58" max="58" width="14.109375" customWidth="1"/>
-    <col min="59" max="59" width="15.21875" customWidth="1"/>
-    <col min="60" max="60" width="10.77734375" customWidth="1"/>
-    <col min="61" max="61" width="5.6640625" customWidth="1"/>
-    <col min="62" max="62" width="10.77734375" customWidth="1"/>
-    <col min="63" max="63" width="9.6640625" customWidth="1"/>
-    <col min="64" max="64" width="11.88671875" customWidth="1"/>
+    <col min="58" max="58" width="14.125" customWidth="1"/>
+    <col min="59" max="59" width="15.25" customWidth="1"/>
+    <col min="60" max="60" width="10.75" customWidth="1"/>
+    <col min="61" max="61" width="5.625" customWidth="1"/>
+    <col min="62" max="62" width="10.75" customWidth="1"/>
+    <col min="63" max="63" width="9.625" customWidth="1"/>
+    <col min="64" max="64" width="11.875" customWidth="1"/>
     <col min="65" max="65" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6403,7 +6369,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="2" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>101</v>
       </c>
@@ -6555,7 +6521,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>164</v>
       </c>
@@ -6707,7 +6673,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>165</v>
       </c>
@@ -6859,7 +6825,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>166</v>
       </c>
@@ -7011,7 +6977,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>269</v>
       </c>
@@ -7183,7 +7149,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>313</v>
       </c>
@@ -7355,7 +7321,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>318</v>
       </c>
@@ -7527,7 +7493,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>321</v>
       </c>
@@ -7699,7 +7665,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>301</v>
       </c>
